--- a/4_Delete_Attributes_S7.xlsx
+++ b/4_Delete_Attributes_S7.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,20 +459,238 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>S7</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Attribute</t>
-        </is>
-      </c>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>S7 - Attribute</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
